--- a/testing/d0b_se.xlsx
+++ b/testing/d0b_se.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="49" uniqueCount="34">
   <si>
     <t>d0b_glmm</t>
   </si>
@@ -27,43 +27,49 @@
     <t xml:space="preserve">  1</t>
   </si>
   <si>
-    <t>(0.165)</t>
+    <t>(0.076)</t>
   </si>
   <si>
     <t xml:space="preserve">  2</t>
   </si>
   <si>
-    <t>(0.170)</t>
+    <t>(0.089)</t>
+  </si>
+  <si>
+    <t>(0.092)</t>
   </si>
   <si>
     <t xml:space="preserve">  3</t>
   </si>
   <si>
-    <t>(0.183)</t>
+    <t>(0.109)</t>
+  </si>
+  <si>
+    <t>(0.113)</t>
   </si>
   <si>
     <t xml:space="preserve">  4</t>
   </si>
   <si>
-    <t>(0.206)</t>
-  </si>
-  <si>
-    <t>(0.207)</t>
+    <t>(0.128)</t>
+  </si>
+  <si>
+    <t>(0.134)</t>
   </si>
   <si>
     <t xml:space="preserve">  5</t>
   </si>
   <si>
-    <t>(0.237)</t>
-  </si>
-  <si>
-    <t>(0.239)</t>
+    <t>(0.149)</t>
+  </si>
+  <si>
+    <t>(0.157)</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>(0.128)</t>
+    <t>(0.107)</t>
   </si>
   <si>
     <t>M1[i]</t>
@@ -81,34 +87,31 @@
     <t>var(M1[i])</t>
   </si>
   <si>
-    <t>(0.400)</t>
+    <t>(0.032)</t>
   </si>
   <si>
     <t>var(M2[i&gt;id])</t>
   </si>
   <si>
-    <t>(0.641)</t>
-  </si>
-  <si>
-    <t>(0.640)</t>
-  </si>
-  <si>
-    <t>(0.060)</t>
-  </si>
-  <si>
-    <t>(0.017)</t>
-  </si>
-  <si>
-    <t>(0.012)</t>
-  </si>
-  <si>
-    <t>(0.066)</t>
+    <t>(0.135)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>(0.129)</t>
+  </si>
+  <si>
+    <t>(0.057)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
   </si>
   <si>
     <t>ln_p</t>
   </si>
   <si>
-    <t>(0.026)</t>
+    <t>(0.024)</t>
   </si>
   <si>
     <t>Number of observations</t>
@@ -1894,45 +1897,45 @@
         <v>6</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1940,70 +1943,70 @@
         <v>3</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="66" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" s="68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -2011,50 +2014,50 @@
         <v>3</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="96" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="109">
-        <v>7904</v>
+        <v>8259</v>
       </c>
       <c r="C21" s="113">
-        <v>9671</v>
+        <v>10222</v>
       </c>
     </row>
   </sheetData>
